--- a/data/trans_orig/P41C_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>115668</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109608</v>
+        <v>109790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118897</v>
+        <v>119250</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9575794629053221</v>
+        <v>0.9575794629053219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9074088677891592</v>
+        <v>0.9089166656432699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.984311122532058</v>
+        <v>0.98723656170806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -762,19 +762,19 @@
         <v>114383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107568</v>
+        <v>108184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118105</v>
+        <v>118284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9365431243894261</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8807426231906513</v>
+        <v>0.8857874064425689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.967022611732502</v>
+        <v>0.9684851854249703</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -783,19 +783,19 @@
         <v>230051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222338</v>
+        <v>221663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>235837</v>
+        <v>235349</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9470032290817401</v>
+        <v>0.94700322908174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.915254716427524</v>
+        <v>0.9124767256368902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9708207856189109</v>
+        <v>0.968812252546364</v>
       </c>
     </row>
     <row r="5">
@@ -859,19 +859,19 @@
         <v>3172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8765</v>
+        <v>8577</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02625772564889048</v>
+        <v>0.02625772564889046</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007499394684331832</v>
+        <v>0.007435594545454784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07256108538559605</v>
+        <v>0.07100672690767092</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -880,19 +880,19 @@
         <v>5015</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2051</v>
+        <v>2348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10098</v>
+        <v>10427</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04106005113211891</v>
+        <v>0.0410600511321189</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01679066400835425</v>
+        <v>0.01922534251048163</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0826836244229332</v>
+        <v>0.08537060845566172</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -901,19 +901,19 @@
         <v>8187</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3704</v>
+        <v>4323</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14141</v>
+        <v>16665</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03369974581438135</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.015245855574788</v>
+        <v>0.01779475757063353</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05821107229300182</v>
+        <v>0.06860197336438024</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5913</v>
+        <v>6497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01437718495639618</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04841180638665227</v>
+        <v>0.05319547373040634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6627</v>
+        <v>7480</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0072282764278979</v>
+        <v>0.007228276427897899</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02727964599829957</v>
+        <v>0.03078977278580862</v>
       </c>
     </row>
     <row r="8">
@@ -996,16 +996,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6459</v>
+        <v>7006</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01616281144578757</v>
+        <v>0.01616281144578756</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05347489774640333</v>
+        <v>0.05799838022030166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5530</v>
+        <v>4805</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00801963952205881</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04527694775726149</v>
+        <v>0.0393427203861906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1035,19 +1035,19 @@
         <v>2932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8067</v>
+        <v>7877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01206874867598073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003094594396577025</v>
+        <v>0.003151395056739037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0332080326224809</v>
+        <v>0.03242586451412497</v>
       </c>
     </row>
     <row r="9">
@@ -1139,19 +1139,19 @@
         <v>86637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80695</v>
+        <v>80368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89094</v>
+        <v>89098</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9606795691999641</v>
+        <v>0.9606795691999639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8947903234934059</v>
+        <v>0.8911693739439934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9879196159676444</v>
+        <v>0.9879736396298726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -1160,19 +1160,19 @@
         <v>108045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101352</v>
+        <v>101556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112300</v>
+        <v>112642</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9182837711072548</v>
+        <v>0.9182837711072549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.861401030397789</v>
+        <v>0.8631341575678385</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9544409126101538</v>
+        <v>0.9573484591358573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -1181,19 +1181,19 @@
         <v>194682</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>186641</v>
+        <v>186365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200335</v>
+        <v>200694</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9366791949801061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8979885037350505</v>
+        <v>0.896664289024527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9638769071808159</v>
+        <v>0.9656053526819551</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5807</v>
+        <v>5446</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01247086951042053</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0643931892847897</v>
+        <v>0.0603894756479904</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4066</v>
+        <v>3658</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006023653356847787</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.034555023704475</v>
+        <v>0.03108566850118593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1255,16 +1255,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6449</v>
+        <v>6299</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.008821083273971114</v>
+        <v>0.008821083273971115</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03102818069830248</v>
+        <v>0.03030533091185184</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8390</v>
+        <v>7855</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02684956128961554</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09303283061342882</v>
+        <v>0.08710203703545429</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1302,19 +1302,19 @@
         <v>4917</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1923</v>
+        <v>2129</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9693</v>
+        <v>10368</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04179220142956187</v>
+        <v>0.04179220142956189</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01634645462118143</v>
+        <v>0.01809681075015577</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08238467485383075</v>
+        <v>0.08812080003617337</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1323,19 +1323,19 @@
         <v>7339</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3404</v>
+        <v>3379</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13938</v>
+        <v>13902</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03530862967198559</v>
+        <v>0.0353086296719856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01637874131756132</v>
+        <v>0.01625507967820757</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0670616631112247</v>
+        <v>0.06688741998518059</v>
       </c>
     </row>
     <row r="13">
@@ -1412,19 +1412,19 @@
         <v>3989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10011</v>
+        <v>9553</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03390037410633554</v>
+        <v>0.03390037410633555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009221935487389327</v>
+        <v>0.009235848110207638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08508357135368304</v>
+        <v>0.08119203939877399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1433,19 +1433,19 @@
         <v>3989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1054</v>
+        <v>1078</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9377</v>
+        <v>9967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01919109207393718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005073254445410313</v>
+        <v>0.005188733853109528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04511634303497151</v>
+        <v>0.04795460396331762</v>
       </c>
     </row>
     <row r="15">
@@ -1537,19 +1537,19 @@
         <v>104688</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91209</v>
+        <v>90103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109797</v>
+        <v>109627</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9427131175600438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8213339777761736</v>
+        <v>0.8113763683815118</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9887195083835925</v>
+        <v>0.9871900434033112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1558,7 +1558,7 @@
         <v>33897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30251</v>
+        <v>30120</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>34638</v>
@@ -1567,7 +1567,7 @@
         <v>0.9786143820489641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8733364061028316</v>
+        <v>0.8695650805250911</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1579,19 +1579,19 @@
         <v>138586</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>124894</v>
+        <v>125382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144184</v>
+        <v>144143</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9512487749681822</v>
+        <v>0.9512487749681818</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8572709502420515</v>
+        <v>0.8606218940271569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9896779466688335</v>
+        <v>0.9893962726520694</v>
       </c>
     </row>
     <row r="17">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4387</v>
+        <v>4518</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02138561795103591</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1266635938971677</v>
+        <v>0.130434919474909</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1645,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3878</v>
+        <v>4001</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.005084509163951777</v>
+        <v>0.005084509163951775</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02662185717895497</v>
+        <v>0.02746123293429015</v>
       </c>
     </row>
     <row r="18">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7269</v>
+        <v>7448</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01292103318977149</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0654529866042827</v>
+        <v>0.06707138931577208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7253</v>
+        <v>7123</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.009849010122140853</v>
+        <v>0.00984901012214085</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04978712778821805</v>
+        <v>0.04889235863679809</v>
       </c>
     </row>
     <row r="19">
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19789</v>
+        <v>19285</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04436584925018473</v>
+        <v>0.04436584925018472</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1781952155252949</v>
+        <v>0.1736636676031914</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19301</v>
+        <v>18059</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03381770574572546</v>
+        <v>0.03381770574572544</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1324837683498364</v>
+        <v>0.1239579832794018</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>216408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>208648</v>
+        <v>208575</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>221726</v>
+        <v>221404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9567141646428128</v>
+        <v>0.9567141646428129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9224084853068359</v>
+        <v>0.9220858533674189</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9802263738723519</v>
+        <v>0.9788033913479764</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>277</v>
@@ -1940,19 +1940,19 @@
         <v>207564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>203247</v>
+        <v>202562</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210454</v>
+        <v>210070</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9789796286187675</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9586159173532053</v>
+        <v>0.9553866098401957</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9926079505180844</v>
+        <v>0.9907968450529366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>467</v>
@@ -1961,19 +1961,19 @@
         <v>423971</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>415803</v>
+        <v>414975</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>429901</v>
+        <v>430357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9674867116947589</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9488464307811871</v>
+        <v>0.946958491252843</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9810183836599182</v>
+        <v>0.9820585387356138</v>
       </c>
     </row>
     <row r="23">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6557</v>
+        <v>7306</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005013105074783969</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0289893917876669</v>
+        <v>0.03229805064876818</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5016</v>
+        <v>4442</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004103190759142426</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02365846375293101</v>
+        <v>0.02095190791797916</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7061</v>
+        <v>6895</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004572867458847757</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01611282130846458</v>
+        <v>0.0157336966724869</v>
       </c>
     </row>
     <row r="24">
@@ -2061,19 +2061,19 @@
         <v>5099</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1854</v>
+        <v>2022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11558</v>
+        <v>11454</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02254141360247935</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00819735045160461</v>
+        <v>0.008940757828257978</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05109851311374269</v>
+        <v>0.05063632627128174</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4805</v>
+        <v>4921</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006690038092486885</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02266133004710539</v>
+        <v>0.02320894267448625</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -2103,19 +2103,19 @@
         <v>6517</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2739</v>
+        <v>2657</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12586</v>
+        <v>13082</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01487215107537141</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006249248447296723</v>
+        <v>0.006063166800323426</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02872178071893715</v>
+        <v>0.02985205821089885</v>
       </c>
     </row>
     <row r="25">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6472</v>
+        <v>5275</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005580348066434437</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02861060742733627</v>
+        <v>0.02331931608687449</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6207</v>
+        <v>7125</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002880446453028951</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01416478065801925</v>
+        <v>0.01625827154836733</v>
       </c>
     </row>
     <row r="26">
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8331</v>
+        <v>7912</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01015096861348953</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03682906473178842</v>
+        <v>0.0349792135576707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2216,19 +2216,19 @@
         <v>2168</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5465</v>
+        <v>6118</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01022714252960315</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002894080565199342</v>
+        <v>0.002930539785072664</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02577419643585501</v>
+        <v>0.02885769965727888</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2237,19 +2237,19 @@
         <v>4464</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1338</v>
+        <v>1532</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9529</v>
+        <v>10243</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01018782331799293</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003053520047351899</v>
+        <v>0.003495916732018867</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02174502353692114</v>
+        <v>0.02337381337171142</v>
       </c>
     </row>
     <row r="27">
@@ -2341,7 +2341,7 @@
         <v>107634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>101715</v>
+        <v>102277</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>109091</v>
@@ -2350,7 +2350,7 @@
         <v>0.9866442469056771</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9323844046934006</v>
+        <v>0.9375345135447832</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -2362,19 +2362,19 @@
         <v>163919</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>158052</v>
+        <v>158770</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167755</v>
+        <v>167838</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9571889440589929</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9229301231195663</v>
+        <v>0.9271234468383822</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9795919944257887</v>
+        <v>0.9800755727424381</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>312</v>
@@ -2383,19 +2383,19 @@
         <v>271553</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>265457</v>
+        <v>264570</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>275954</v>
+        <v>275858</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9686510678444775</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9469090478610142</v>
+        <v>0.9437431026152167</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.984350474369164</v>
+        <v>0.9840104183190777</v>
       </c>
     </row>
     <row r="29">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4509</v>
+        <v>3647</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00425023981466846</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02633146760727118</v>
+        <v>0.02129719609149078</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3827</v>
+        <v>3788</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.002596317764459114</v>
+        <v>0.002596317764459115</v>
       </c>
       <c r="V29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01364980794590481</v>
+        <v>0.01351116174741039</v>
       </c>
     </row>
     <row r="30">
@@ -2488,19 +2488,19 @@
         <v>5146</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10106</v>
+        <v>10325</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03005043035733437</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01268269728950022</v>
+        <v>0.01269111792499505</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05901415829123494</v>
+        <v>0.06029197686209792</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2509,19 +2509,19 @@
         <v>5146</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2029</v>
+        <v>2095</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10572</v>
+        <v>10483</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.01835672093069286</v>
+        <v>0.01835672093069287</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00723861623515449</v>
+        <v>0.007471370624265333</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0377102080127</v>
+        <v>0.03739504380743362</v>
       </c>
     </row>
     <row r="31">
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7376</v>
+        <v>6814</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01335575309432303</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0676155953066022</v>
+        <v>0.06246548645521766</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2575,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7242</v>
+        <v>5849</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.005197206629051268</v>
+        <v>0.005197206629051269</v>
       </c>
       <c r="V31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02583426389899364</v>
+        <v>0.0208644982394402</v>
       </c>
     </row>
     <row r="32">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5069</v>
+        <v>5078</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008510385769004217</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02960221840714992</v>
+        <v>0.02965383227380594</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2638,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5491</v>
+        <v>5147</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.00519868683131925</v>
+        <v>0.005198686831319251</v>
       </c>
       <c r="V32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01958619956846427</v>
+        <v>0.01835870842673161</v>
       </c>
     </row>
     <row r="33">
@@ -2752,16 +2752,16 @@
         <v>91798</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>90364</v>
+        <v>89990</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>92143</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9962535744858322</v>
+        <v>0.9962535744858323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9806927324849116</v>
+        <v>0.9766384405211171</v>
       </c>
       <c r="P34" s="6" t="n">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>111264</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>109796</v>
+        <v>109708</v>
       </c>
       <c r="T34" s="5" t="n">
         <v>111609</v>
@@ -2782,7 +2782,7 @@
         <v>0.9969070063951184</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9837581454609431</v>
+        <v>0.9829657713042418</v>
       </c>
       <c r="W34" s="6" t="n">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1779</v>
+        <v>2153</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.003746425514167748</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01930726751508833</v>
+        <v>0.02336155947888276</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1813</v>
+        <v>1901</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003092993604881562</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01624185453905728</v>
+        <v>0.01703422869575945</v>
       </c>
     </row>
     <row r="36">
@@ -3081,19 +3081,19 @@
         <v>650500</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>636144</v>
+        <v>635790</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>660119</v>
+        <v>660173</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.9611691123354226</v>
+        <v>0.9611691123354228</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.9399567606936151</v>
+        <v>0.9394342358082994</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9753821798915004</v>
+        <v>0.9754623401467557</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>945</v>
@@ -3102,19 +3102,19 @@
         <v>719606</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>708975</v>
+        <v>709215</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>728040</v>
+        <v>727995</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.959672928821932</v>
+        <v>0.9596729288219322</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9454954656747504</v>
+        <v>0.9458153400842676</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9709205064275777</v>
+        <v>0.9708612297823629</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1495</v>
@@ -3123,19 +3123,19 @@
         <v>1370107</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1352427</v>
+        <v>1351960</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1383224</v>
+        <v>1384314</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9603827070355202</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9479896246917845</v>
+        <v>0.9476621846871224</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9695772007693059</v>
+        <v>0.9703415205848386</v>
       </c>
     </row>
     <row r="41">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7147</v>
+        <v>7710</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003337288974881952</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01056100508801388</v>
+        <v>0.01139172752528883</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3173,19 +3173,19 @@
         <v>3393</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1284</v>
+        <v>1401</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7742</v>
+        <v>7789</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.004524295195595819</v>
+        <v>0.00452429519559582</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001712879192024459</v>
+        <v>0.001867779608228903</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01032448311716487</v>
+        <v>0.01038782604785626</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -3194,19 +3194,19 @@
         <v>5651</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2456</v>
+        <v>2316</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>11859</v>
+        <v>11597</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003961188365945858</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001721725519805644</v>
+        <v>0.001623181306239847</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008312899582881266</v>
+        <v>0.008129187967866016</v>
       </c>
     </row>
     <row r="42">
@@ -3223,19 +3223,19 @@
         <v>12127</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6357</v>
+        <v>5544</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20779</v>
+        <v>21578</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01791837367186662</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.009393564770558662</v>
+        <v>0.008191928105584752</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03070214324109225</v>
+        <v>0.03188342712008407</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>23</v>
@@ -3244,19 +3244,19 @@
         <v>16497</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>11076</v>
+        <v>10695</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>23873</v>
+        <v>25674</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02200006539202807</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01477109395084842</v>
+        <v>0.01426289750831792</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03183777092267692</v>
+        <v>0.03423882734368983</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>34</v>
@@ -3265,19 +3265,19 @@
         <v>28623</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>19729</v>
+        <v>19778</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>39804</v>
+        <v>40359</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02006374151769628</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0138291754560915</v>
+        <v>0.01386379854383103</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02790069330424251</v>
+        <v>0.02828966071890084</v>
       </c>
     </row>
     <row r="43">
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>8740</v>
+        <v>10433</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.004017928423083648</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0129140061198807</v>
+        <v>0.01541589319152115</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>6233</v>
+        <v>6408</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.002341722670943937</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.00831183625663828</v>
+        <v>0.008545812705046051</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4</v>
@@ -3336,19 +3336,19 @@
         <v>4475</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>11397</v>
+        <v>10621</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.003136902081512458</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.00088888319135294</v>
+        <v>0.0008935596679940641</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.007988901558683778</v>
+        <v>0.007444586637172733</v>
       </c>
     </row>
     <row r="44">
@@ -3365,19 +3365,19 @@
         <v>9175</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3485</v>
+        <v>3417</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>22135</v>
+        <v>25032</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01355729659474511</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.005148656215150201</v>
+        <v>0.005049132748687833</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0327059527786243</v>
+        <v>0.0369870894390348</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -3386,19 +3386,19 @@
         <v>8594</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4247</v>
+        <v>4385</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>15704</v>
+        <v>15651</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01146098791949992</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005664430537593001</v>
+        <v>0.005848228774090068</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02094297739255651</v>
+        <v>0.02087254687472169</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>16</v>
@@ -3407,19 +3407,19 @@
         <v>17769</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10554</v>
+        <v>9331</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>31617</v>
+        <v>30866</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01245546099932515</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.007398133877065016</v>
+        <v>0.006540466031908623</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02216209164824261</v>
+        <v>0.02163600803063897</v>
       </c>
     </row>
     <row r="45">
